--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1604,10 +1616,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1651,28 +1663,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1697,28 +1709,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1847,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1882,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1940,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2107,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2142,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2200,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2309,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2344,28 +2356,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2402,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2586,10 +2598,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2633,28 +2645,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2679,28 +2691,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2875,10 +2887,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2922,28 +2934,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2968,28 +2980,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3089,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3182,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3291,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3326,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3384,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3493,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3528,28 +3540,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3586,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3885,10 +3897,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3932,28 +3944,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3978,28 +3990,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4087,10 +4099,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4134,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4180,28 +4192,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4318,10 +4330,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4365,28 +4377,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4411,28 +4423,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4549,10 +4561,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4596,28 +4608,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4642,28 +4654,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4751,10 +4763,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4798,28 +4810,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4844,28 +4856,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4953,10 +4965,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5000,28 +5012,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5046,28 +5058,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5242,10 +5254,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5289,28 +5301,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5335,28 +5347,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5444,10 +5456,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5491,28 +5503,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5537,28 +5549,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5646,10 +5658,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5693,28 +5705,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5739,28 +5751,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5877,10 +5889,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5924,28 +5936,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5970,28 +5982,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6050,10 +6062,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6097,28 +6109,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6143,28 +6155,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6397,10 +6409,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6444,28 +6456,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6490,28 +6502,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6628,10 +6640,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6675,28 +6687,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6721,28 +6733,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6917,10 +6929,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6964,28 +6976,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7010,28 +7022,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7131,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7178,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7224,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7292,10 +7304,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7339,28 +7351,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7385,28 +7397,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7465,10 +7477,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7512,28 +7524,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7558,28 +7570,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
